--- a/backend/app/vol/All My EUC Report_3_9_2020 2_17_29 PM_Marzo2020.xlsx
+++ b/backend/app/vol/All My EUC Report_3_9_2020 2_17_29 PM_Marzo2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Business Inteligence\Politica Citi(Call List-COB-RMP-IRI)\EUC\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\projects\at-lrr\backend\app\vol\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0425D5CE-7397-4D35-A3BF-F386AB756690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="11475"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,40 +21,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Zabala, Yelitze [GCB-OT]</author>
-  </authors>
-  <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zabala, Yelitze [GCB-OT]:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No me queda claro</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="297">
   <si>
@@ -901,12 +868,6 @@
   </si>
   <si>
     <t>DWH_SIIF_EXTRACTOR.accdb</t>
-  </si>
-  <si>
-    <t>Se hace conexion con el LDWH para extraer data de 9 tablas pesadas, se descargan reportes provenientes de CA-View los cuales convierten manualmente en Monarch para poder darles un formato legible. Se obtienen los datos de los insumos extraídos en los procesos de 'DetailRendimientos_SG' y 'Detail By Acct Castigados Cancelados_SG'. Una vez obtenidos los datos, se realiza un consolidado exhaustivo de todos los datos entre todos los insumos por medio de la ejecucion de una serie de queries para poder obtener el detalle en un solo reporte de los productos no dirigidos del banco. Luego se realiza un chequeo de los saldos mediante varios summaries, comparando con distintos reportes como la contabilidad local y balance al cierre del mes para determinar si el reporte cuadra con los saldos del balance. Una vez realizado esto se termina de armar el reporte agregandole la provisión, el mismo se extrae ya que formará una parte importante del resto de los procesos del BAU</t>
-  </si>
-  <si>
-    <t>Se vacia en la plantilla en Excel la data proveniente del LDWH, RDWH, y de data manual (Agencia, DM GAI India, Dpto. Fraude, Cards Operation, Compensacion, TTS, Application Support). La misma autocompleta ciertos campos de la plantilla con calculos basados en la data previamente vaciada en la misma.</t>
   </si>
   <si>
     <t>* Extrae 6 tablas del LDWH (dbo_Account, dbo_AccountHistory, dbo_Customer, dbo_LNP860, dbo_Relation, dbo_Type)  y 1  tabla del RDWH (VEDBCON.INTERIM_ACCT_MASTER_D_G3).
@@ -916,12 +877,6 @@
 * Chequeo de los saldos mediante varios summaries y validaciones arrojados por queries dentro del Access, propuestas por negocio para determirar si la cartera se encuentra segun sus parametros.
 * Envia a las areas de nogocio correspondientes para que validen la información. 
 * El reporte se extrae ya que forma una parte importante del resto de los procesos del BAU.</t>
-  </si>
-  <si>
-    <t>Se hace conexion al LDWH para extraer data de 6 tablas (dbo_AccountHistory, dbo_Customer, dbo_Relation, dbo_Type, dbo_VNP020T, dbo_Status), se descargan 2 reportes provenientes de CA-View (TA0280B y TA0365B) los cuales se convierten manualmente en Monarch para poder darles un formato legible y luego estos ser cargados en el access. Una vez obtenidos los datos previamente mencionados, se realiza un consolidado de todos los datos entre todos los insumos por medio de la ejecucion de una serie de queries para poder obtener el detalle de los clientes pasivos del banco. Una vez realizado esto se extrae la data del reporte en 4 archivos de texto (detalle de sobregiros, detalle de captaciones, detalle de captaciones para finanzas, detalle cuentas inactivas) y 4 plantillas en excel (detalle de sobregiros, detalle de captaciones, detalle de captaciones para finanzas, detalle cuentas inactivas) que son enviadas al departamento de finanzas y negocio para su validación y posterior ajuste en el balance.  El reporte se debe extraer ya que formará una parte importante del resto de los procesos del BAU.</t>
-  </si>
-  <si>
-    <t>Se hace conexion con el LDWH Local y Corporativo Regional extraer data de 3 tablas del Local (dbo_AccountHistory, dbo_Customer, dbo_Relation) y 1 del Regional (VEDBCON.DRI_862_ECS_NAS_DLY_G3). Una vez obtenidos los datos, se realiza un consolidado de todos los datos entre todos los insumos por medio de la ejecucion de varios queries para poder obtener en dos reportes (Créditos Negados y Otorgados de Tercera Edad) el detalle de clientes de tercera edad del banco. Una vez realizado esto se termina de armar el reporte colocandolo en dos plantillas en excel (Créditos Negados y Otorgados de Tercera Edad) que son enviadas al departamento de fraude para su validación y posterior aprobación para su transmisión.</t>
   </si>
   <si>
     <t>Se requiere un desarrollo de una ejecucion automatica desde los backends que se ejecute a principios de mes en donde extraiga de CORE toda la data necesaria para construir la cartera y obtenga desde algun repositorio compartido con Credit Initiation la data manual de los creditos desembolsados en el mes.</t>
@@ -972,21 +927,6 @@
     </r>
   </si>
   <si>
-    <t>* Extrae   3 tablas  del LDWH(dbo_AccountHistory, dbo_Customer y dbo_Relation).
-* Resultado contiene delos cancelados y castigados del mes a reportar mediante la ejecucion de una serie de queries que determinan esto deacuerdo a una serie de parametros y condiciones dentro de ellos. Luego de la ejecucion de dichos queries, los mismos formaran un detalle de los creditos cancelados y castigados el cual se exporta y se envia a departamento de finanzas para que realicen los ajustes correspondientes en el balance.</t>
-  </si>
-  <si>
-    <t>* Extrae data de 5 tabla del LDWH (dbo_AccountHistory, dbo_Costumer, dbo_DivisionType, dbo_LNP860, dbo_Relation). *
-* Extrae reporte de CA-View (LN426C)
-* Aplica modelo de monarch
-* La data se cargan en Access.
-* Extrae los saldos del reporte 3002z por medio de la tabla OCRF del LDWH Corporativo. 
-* Consolida toda la data de los distintos reportes a traves de queriesy  obtener el detalle de los interéses del cliente.
-* Ejeuctar summary de  los saldos mediante  resultado de la ejecucion de otros queries.
-* Comparar  los total des de summary vs. totales de los reportes LN426C vs. contabilidad local y balance al cierre del mes. 
-* Ejeucta queries para agregar la data de las provisiones</t>
-  </si>
-  <si>
     <t>* Extrae data de clientes de 6 tablas del LDWH (dbo_Account, dbo_AccountHistory, dbo_Customer, dbo_LNP860, dbo_Relation, dbo_Type)  y 1  tabla del RDWH (VEDBCON.INTERIM_ACCT_MASTER_D_G3).
 * Cargar dentro del Access la data manual llamada 'Desembolsos GCG' enviada por el departamento de Credit Initiation.
 * Insumos extraídos en los procesos de 'DetailRendimientos_SG' y 'Detail By Acct Castigados Cancelados_SG' se cargan al Access.
@@ -995,15 +935,62 @@
 * Envia a las areas de nogocio correspondientes para que validen la información. 
 * El reporte se extrae ya que forma una parte importante del resto de los procesos del BAU.</t>
   </si>
+  <si>
+    <t>* Extrae  data de clientes de 3 tablas  del LDWH (dbo_AccountHistory, dbo_Customer y dbo_Relation).
+* Se ejecutan una sarie de queries para obtener el detalle de los creditos cancelados y castigados del mes a reportar. 
+*Se exporta el detalle de los creditos cancelados y castigados y se envia a departamento de finanzas para que realicen los ajustes correspondientes en el balance.</t>
+  </si>
+  <si>
+    <t>* Extrae data clientes de 5 tabla del LDWH  (dbo_AccountHistory, dbo_Costumer, dbo_DivisionType, dbo_LNP860, dbo_Relation). 
+* Extrae reporte de CA-View (LN426C)
+* Aplica modelo de monarche
+* La data se cargan en Access.
+* Extrae los saldos del reporte 3002z por medio de la tabla OCRF del LDWH Corporativo. 
+* Consolida toda la data de los distintos reportes a traves de queriesy  obtener el detalle de los interéses del cliente.
+* Ejeuctar summary de  los saldos mediante  resultado de la ejecucion de otros queries.
+* Comparar  los totales de summary vs. totales de los reportes LN426C vs. contabilidad local y balance al cierre del mes. 
+* Ejeucta queries para agregar la data de las provisiones.
+* Exportar detalle rendimientos como insumo para el resto de procesos.</t>
+  </si>
+  <si>
+    <t>* Extrae data de clientes de 6 tablas del LDWH (dbo_AccountHistory, dbo_Customer, dbo_Relation, dbo_Type, dbo_VNP020T, dbo_Status)
+* Extrae 2 reportes de CA-View (TA0280B y TA0365B).
+* Aplica modelo de Monarch.
+* La data se carga al Access.
+* Se ejecutan una serie de queries que consolidan la informacion para poder obtener el detalle de los clientes pasivos del banco.
+* Se extrae la data en 4 archivos de texto y de Excel (detalle de sobregiros, detalle de captaciones, detalle de captaciones para finanzas, detalle cuentas inactivas).
+* Se envia la data al dpto de finanzas y negocio para su validacion y ajuste al balance.
+* Se extrae el reporte como insumo para el resto de procesos.</t>
+  </si>
+  <si>
+    <t>* Extrae data de clientes de 3 tablas del LDWH (dbo_AccountHistory, dbo_Customer, dbo_Relation)
+* Extrae data de clientes de 1 tabla del RDWH (VEDBCON.DRI_862_ECS_NAS_DLY_G3)
+* Se ejecutan una serie de queries que consolidan la informacion para obtener el detalle de los Créditos Negados y Otorgados de clientes de Tercera Edad del banco.
+* Se exporta la data en 2 archivos Excel (Créditos Negados y Otorgados de Tercera Edad).
+* Se envia la plantillla Excel al Dpto. de Fraude para su validacion y posterior aprobacion para su transmision.</t>
+  </si>
+  <si>
+    <t>* Extrae data de clientes de 9 tablas del LDWH (dbo_AccountHistory, dbo_Activity, dbo_AddressBook, debo_Customer, dbo_LNP860, dbo_Relation, dbo_VNP020T, dbo_Type, dbo_Status)
+* Extrae data de insumos extraidos en los procesos de 'DetailRendimientos y 'Detail By Acct Castigados Cancelados'
+* Se ejecutan una serie de queries para realizar un consolidado exhaustivo de todos los datos entre todos los insumos, para asi obtener el detalle de los productos no dirigidos del banco.
+* Se ejecuta otra serie de queries para obtener los summaries de los saldos del reporte.
+* Se realiza un chequeo de los saldos comparando el resultados de los summaries contra los saldos de la contabilidad local y balance al cierre del mes, para asi determinar si los saldos cuadran con balance.
+* Se agrega la provision al reporte.
+* Se extrae el reporte para ser utilizado en el resto de procesos.</t>
+  </si>
+  <si>
+    <t>* Se vacia en la plantilla en Excel la data proveniente del LDWH, RDWH, y de data manual (Agencia, DM GAI India, Dpto. Fraude, Cards Operation, Compensacion, TTS, Application Support). 
+* La plantilla autocompleta ciertos campos de la misma con calculos basados en la data previamente vaciada.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1038,27 +1025,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,12 +1060,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1189,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1225,9 +1187,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -1246,11 +1205,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,106 +1251,106 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="EUCTable1" displayName="EUCTable1" ref="A3:CK12">
-  <autoFilter ref="A3:CK12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="EUCTable1" displayName="EUCTable1" ref="A3:CK12">
+  <autoFilter ref="A3:CK12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="89">
-    <tableColumn id="1" name="EUC Inventory ID"/>
-    <tableColumn id="2" name="File Name" dataDxfId="2"/>
-    <tableColumn id="3" name="File Type"/>
-    <tableColumn id="4" name="Status"/>
-    <tableColumn id="5" name="Risk"/>
-    <tableColumn id="6" name="Control In Scope"/>
-    <tableColumn id="7" name="Last IR"/>
-    <tableColumn id="8" name="IR Status"/>
-    <tableColumn id="9" name="Last IR By"/>
-    <tableColumn id="10" name="Last EV"/>
-    <tableColumn id="11" name="EV Status"/>
-    <tableColumn id="12" name="Last EV By"/>
-    <tableColumn id="13" name="Last CC"/>
-    <tableColumn id="14" name="CC Status"/>
-    <tableColumn id="15" name="Last CC By"/>
-    <tableColumn id="16" name="Last DC"/>
-    <tableColumn id="17" name="DC Status"/>
-    <tableColumn id="18" name="Last DC By"/>
-    <tableColumn id="19" name="Last TC"/>
-    <tableColumn id="20" name="TC Status"/>
-    <tableColumn id="21" name="Last TC By"/>
-    <tableColumn id="22" name="Last DI"/>
-    <tableColumn id="23" name="DI Status"/>
-    <tableColumn id="24" name="Last DI By"/>
-    <tableColumn id="25" name="RC Status"/>
-    <tableColumn id="26" name="Retired on Date"/>
-    <tableColumn id="27" name="Retired By"/>
-    <tableColumn id="28" name="Retirement Plan"/>
-    <tableColumn id="29" name="Planned Retirement Date"/>
-    <tableColumn id="30" name="Retirement Review Justification"/>
-    <tableColumn id="31" name="Champion Performing Review"/>
-    <tableColumn id="32" name="Retirement Review Date"/>
-    <tableColumn id="33" name="Primary Owner"/>
-    <tableColumn id="34" name="Secondary Owner"/>
-    <tableColumn id="35" name="Use Copy Details"/>
-    <tableColumn id="36" name="Managed Geography"/>
-    <tableColumn id="37" name="Managed Segment"/>
-    <tableColumn id="38" name="Legal Entity"/>
-    <tableColumn id="39" name="Function"/>
-    <tableColumn id="40" name="File Path"/>
-    <tableColumn id="41" name="Doc. Lib"/>
-    <tableColumn id="42" name="Location"/>
-    <tableColumn id="43" name="Classification"/>
-    <tableColumn id="44" name="EUC Name" dataDxfId="1"/>
-    <tableColumn id="45" name="EUC Description" dataDxfId="0"/>
-    <tableColumn id="46" name="Out Of Scope"/>
-    <tableColumn id="47" name="Materiality Level"/>
-    <tableColumn id="48" name="EUC Status Remarks"/>
-    <tableColumn id="49" name="What kind of data does your EUC contain?"/>
-    <tableColumn id="50" name="Number of Users"/>
-    <tableColumn id="51" name="Frequency Of Use"/>
-    <tableColumn id="52" name="EUC Creation Date"/>
-    <tableColumn id="53" name="Select the reason behind not using/developing an IT-managed application"/>
-    <tableColumn id="54" name="If Other, please list the reason here"/>
-    <tableColumn id="55" name="Does this EUC Exists because of Data Quality Issues/Missing functionality of CITI system"/>
-    <tableColumn id="56" name="Explain in detail why this EUC was created"/>
-    <tableColumn id="57" name="CSI ID"/>
-    <tableColumn id="58" name="Inventory Attestation Remarks"/>
-    <tableColumn id="59" name="EUC Required for Disaster Recovery?"/>
-    <tableColumn id="60" name="REMS Code"/>
-    <tableColumn id="61" name="COBTrac Entity ID"/>
-    <tableColumn id="62" name="Upcoming COB date"/>
-    <tableColumn id="63" name="Latest COB Test Completion Date"/>
-    <tableColumn id="64" name="COB Test result"/>
-    <tableColumn id="65" name="Report Name"/>
-    <tableColumn id="66" name="Business Capabilities"/>
-    <tableColumn id="67" name="Complexity"/>
-    <tableColumn id="68" name="Complexity Score"/>
-    <tableColumn id="69" name="Formula Errors"/>
-    <tableColumn id="70" name="Formulas"/>
-    <tableColumn id="71" name="Links"/>
-    <tableColumn id="72" name="Data Connections"/>
-    <tableColumn id="73" name="Nested Ifs"/>
-    <tableColumn id="74" name="Maximum Nested Ifs Level"/>
-    <tableColumn id="75" name="Sheets"/>
-    <tableColumn id="76" name="Named Items"/>
-    <tableColumn id="77" name="Macros/Modules"/>
-    <tableColumn id="78" name="Hidden Sheets"/>
-    <tableColumn id="79" name="Very Hidden Sheets"/>
-    <tableColumn id="80" name="Array Formulas"/>
-    <tableColumn id="81" name="Invisible Cells"/>
-    <tableColumn id="82" name="Hidden Rows And Columns"/>
-    <tableColumn id="83" name="Pivot Tables"/>
-    <tableColumn id="84" name="Updated Date"/>
-    <tableColumn id="85" name="Which of the following best describes what the EUC is used for?"/>
-    <tableColumn id="86" name="EUC Origination Date"/>
-    <tableColumn id="87" name="Use Category"/>
-    <tableColumn id="88" name="Does this EUC function properly with MS Office 365?"/>
-    <tableColumn id="89" name="If this EUC does not function properly with MS Office 365, by when will it be made compatible?"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="EUC Inventory ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="File Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="File Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Risk"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Control In Scope"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Last IR"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IR Status"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Last IR By"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Last EV"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="EV Status"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Last EV By"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Last CC"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="CC Status"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Last CC By"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Last DC"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="DC Status"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Last DC By"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Last TC"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="TC Status"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Last TC By"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Last DI"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="DI Status"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Last DI By"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="RC Status"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Retired on Date"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Retired By"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Retirement Plan"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Planned Retirement Date"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Retirement Review Justification"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Champion Performing Review"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Retirement Review Date"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Primary Owner"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Secondary Owner"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Use Copy Details"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Managed Geography"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Managed Segment"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Legal Entity"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Function"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="File Path"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Doc. Lib"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Location"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Classification"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="EUC Name" dataDxfId="1"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="EUC Description" dataDxfId="0"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Out Of Scope"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Materiality Level"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="EUC Status Remarks"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="What kind of data does your EUC contain?"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Number of Users"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Frequency Of Use"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="EUC Creation Date"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Select the reason behind not using/developing an IT-managed application"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="If Other, please list the reason here"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Does this EUC Exists because of Data Quality Issues/Missing functionality of CITI system"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Explain in detail why this EUC was created"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="CSI ID"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Inventory Attestation Remarks"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="EUC Required for Disaster Recovery?"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="REMS Code"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="COBTrac Entity ID"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Upcoming COB date"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Latest COB Test Completion Date"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="COB Test result"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Report Name"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Business Capabilities"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Complexity"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Complexity Score"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Formula Errors"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Formulas"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Links"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Data Connections"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Nested Ifs"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Maximum Nested Ifs Level"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Sheets"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Named Items"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Macros/Modules"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Hidden Sheets"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Very Hidden Sheets"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Array Formulas"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Invisible Cells"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Hidden Rows And Columns"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Pivot Tables"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Updated Date"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Which of the following best describes what the EUC is used for?"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="EUC Origination Date"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Use Category"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" name="Does this EUC function properly with MS Office 365?"/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" name="If this EUC does not function properly with MS Office 365, by when will it be made compatible?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="EUCTable13" displayName="EUCTable13" ref="A3:CK20">
-  <autoFilter ref="A3:CK20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="EUCTable13" displayName="EUCTable13" ref="A3:CK20">
+  <autoFilter ref="A3:CK20" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="Production"/>
@@ -1402,95 +1358,95 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="89">
-    <tableColumn id="1" name="EUC Inventory ID"/>
-    <tableColumn id="2" name="File Name"/>
-    <tableColumn id="3" name="File Type"/>
-    <tableColumn id="4" name="Status"/>
-    <tableColumn id="5" name="Risk"/>
-    <tableColumn id="6" name="Control In Scope"/>
-    <tableColumn id="7" name="Last IR"/>
-    <tableColumn id="8" name="IR Status"/>
-    <tableColumn id="9" name="Last IR By"/>
-    <tableColumn id="10" name="Last EV"/>
-    <tableColumn id="11" name="EV Status"/>
-    <tableColumn id="12" name="Last EV By"/>
-    <tableColumn id="13" name="Last CC"/>
-    <tableColumn id="14" name="CC Status"/>
-    <tableColumn id="15" name="Last CC By"/>
-    <tableColumn id="16" name="Last DC"/>
-    <tableColumn id="17" name="DC Status"/>
-    <tableColumn id="18" name="Last DC By"/>
-    <tableColumn id="19" name="Last TC"/>
-    <tableColumn id="20" name="TC Status"/>
-    <tableColumn id="21" name="Last TC By"/>
-    <tableColumn id="22" name="Last DI"/>
-    <tableColumn id="23" name="DI Status"/>
-    <tableColumn id="24" name="Last DI By"/>
-    <tableColumn id="25" name="RC Status"/>
-    <tableColumn id="26" name="Retired on Date"/>
-    <tableColumn id="27" name="Retired By"/>
-    <tableColumn id="28" name="Retirement Plan"/>
-    <tableColumn id="29" name="Planned Retirement Date"/>
-    <tableColumn id="30" name="Retirement Review Justification"/>
-    <tableColumn id="31" name="Champion Performing Review"/>
-    <tableColumn id="32" name="Retirement Review Date"/>
-    <tableColumn id="33" name="Primary Owner"/>
-    <tableColumn id="34" name="Secondary Owner"/>
-    <tableColumn id="35" name="Use Copy Details"/>
-    <tableColumn id="36" name="Managed Geography"/>
-    <tableColumn id="37" name="Managed Segment"/>
-    <tableColumn id="38" name="Legal Entity"/>
-    <tableColumn id="39" name="Function"/>
-    <tableColumn id="40" name="File Path"/>
-    <tableColumn id="41" name="Doc. Lib"/>
-    <tableColumn id="42" name="Location"/>
-    <tableColumn id="43" name="Classification"/>
-    <tableColumn id="44" name="EUC Name"/>
-    <tableColumn id="45" name="EUC Description"/>
-    <tableColumn id="46" name="Out Of Scope"/>
-    <tableColumn id="47" name="Materiality Level"/>
-    <tableColumn id="48" name="EUC Status Remarks"/>
-    <tableColumn id="49" name="What kind of data does your EUC contain?"/>
-    <tableColumn id="50" name="Number of Users"/>
-    <tableColumn id="51" name="Frequency Of Use"/>
-    <tableColumn id="52" name="EUC Creation Date"/>
-    <tableColumn id="53" name="Select the reason behind not using/developing an IT-managed application"/>
-    <tableColumn id="54" name="If Other, please list the reason here"/>
-    <tableColumn id="55" name="Does this EUC Exists because of Data Quality Issues/Missing functionality of CITI system"/>
-    <tableColumn id="56" name="Explain in detail why this EUC was created"/>
-    <tableColumn id="57" name="CSI ID"/>
-    <tableColumn id="58" name="Inventory Attestation Remarks"/>
-    <tableColumn id="59" name="EUC Required for Disaster Recovery?"/>
-    <tableColumn id="60" name="REMS Code"/>
-    <tableColumn id="61" name="COBTrac Entity ID"/>
-    <tableColumn id="62" name="Upcoming COB date"/>
-    <tableColumn id="63" name="Latest COB Test Completion Date"/>
-    <tableColumn id="64" name="COB Test result"/>
-    <tableColumn id="65" name="Report Name"/>
-    <tableColumn id="66" name="Business Capabilities"/>
-    <tableColumn id="67" name="Complexity"/>
-    <tableColumn id="68" name="Complexity Score"/>
-    <tableColumn id="69" name="Formula Errors"/>
-    <tableColumn id="70" name="Formulas"/>
-    <tableColumn id="71" name="Links"/>
-    <tableColumn id="72" name="Data Connections"/>
-    <tableColumn id="73" name="Nested Ifs"/>
-    <tableColumn id="74" name="Maximum Nested Ifs Level"/>
-    <tableColumn id="75" name="Sheets"/>
-    <tableColumn id="76" name="Named Items"/>
-    <tableColumn id="77" name="Macros/Modules"/>
-    <tableColumn id="78" name="Hidden Sheets"/>
-    <tableColumn id="79" name="Very Hidden Sheets"/>
-    <tableColumn id="80" name="Array Formulas"/>
-    <tableColumn id="81" name="Invisible Cells"/>
-    <tableColumn id="82" name="Hidden Rows And Columns"/>
-    <tableColumn id="83" name="Pivot Tables"/>
-    <tableColumn id="84" name="Updated Date"/>
-    <tableColumn id="85" name="Which of the following best describes what the EUC is used for?"/>
-    <tableColumn id="86" name="EUC Origination Date"/>
-    <tableColumn id="87" name="Use Category"/>
-    <tableColumn id="88" name="Does this EUC function properly with MS Office 365?"/>
-    <tableColumn id="89" name="If this EUC does not function properly with MS Office 365, by when will it be made compatible?"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="EUC Inventory ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="File Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="File Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Status"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Risk"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Control In Scope"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Last IR"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="IR Status"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Last IR By"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Last EV"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="EV Status"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Last EV By"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Last CC"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CC Status"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Last CC By"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Last DC"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="DC Status"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Last DC By"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Last TC"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="TC Status"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Last TC By"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Last DI"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="DI Status"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Last DI By"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="RC Status"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Retired on Date"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Retired By"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="Retirement Plan"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Planned Retirement Date"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="Retirement Review Justification"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Champion Performing Review"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="Retirement Review Date"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Primary Owner"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Secondary Owner"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Use Copy Details"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Managed Geography"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="Managed Segment"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="Legal Entity"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="Function"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="File Path"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="Doc. Lib"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" name="Location"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" name="Classification"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" name="EUC Name"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0100-00002D000000}" name="EUC Description"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0100-00002E000000}" name="Out Of Scope"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0100-00002F000000}" name="Materiality Level"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0100-000030000000}" name="EUC Status Remarks"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0100-000031000000}" name="What kind of data does your EUC contain?"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0100-000032000000}" name="Number of Users"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0100-000033000000}" name="Frequency Of Use"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0100-000034000000}" name="EUC Creation Date"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0100-000035000000}" name="Select the reason behind not using/developing an IT-managed application"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0100-000036000000}" name="If Other, please list the reason here"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0100-000037000000}" name="Does this EUC Exists because of Data Quality Issues/Missing functionality of CITI system"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0100-000038000000}" name="Explain in detail why this EUC was created"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0100-000039000000}" name="CSI ID"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0100-00003A000000}" name="Inventory Attestation Remarks"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0100-00003B000000}" name="EUC Required for Disaster Recovery?"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0100-00003C000000}" name="REMS Code"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0100-00003D000000}" name="COBTrac Entity ID"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0100-00003E000000}" name="Upcoming COB date"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0100-00003F000000}" name="Latest COB Test Completion Date"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0100-000040000000}" name="COB Test result"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0100-000041000000}" name="Report Name"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0100-000042000000}" name="Business Capabilities"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0100-000043000000}" name="Complexity"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0100-000044000000}" name="Complexity Score"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0100-000045000000}" name="Formula Errors"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0100-000046000000}" name="Formulas"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0100-000047000000}" name="Links"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0100-000048000000}" name="Data Connections"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0100-000049000000}" name="Nested Ifs"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0100-00004A000000}" name="Maximum Nested Ifs Level"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0100-00004B000000}" name="Sheets"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0100-00004C000000}" name="Named Items"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0100-00004D000000}" name="Macros/Modules"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0100-00004E000000}" name="Hidden Sheets"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0100-00004F000000}" name="Very Hidden Sheets"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0100-000050000000}" name="Array Formulas"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0100-000051000000}" name="Invisible Cells"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0100-000052000000}" name="Hidden Rows And Columns"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0100-000053000000}" name="Pivot Tables"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0100-000054000000}" name="Updated Date"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0100-000055000000}" name="Which of the following best describes what the EUC is used for?"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0100-000056000000}" name="EUC Origination Date"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0100-000057000000}" name="Use Category"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0100-000058000000}" name="Does this EUC function properly with MS Office 365?"/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0100-000059000000}" name="If this EUC does not function properly with MS Office 365, by when will it be made compatible?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1758,14 +1714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -1773,10 +1729,10 @@
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="55.7109375" customWidth="1"/>
     <col min="6" max="6" width="71.5703125" customWidth="1"/>
-    <col min="7" max="7" width="63" style="19" customWidth="1"/>
+    <col min="7" max="7" width="63" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1792,14 +1748,14 @@
       <c r="E1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="270.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="270.75" thickTop="1">
       <c r="A2" s="7">
         <v>29318276</v>
       </c>
@@ -1815,14 +1771,14 @@
       <c r="E2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>286</v>
+      <c r="F2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="270">
       <c r="A3" s="9">
         <v>29318265</v>
       </c>
@@ -1838,14 +1794,14 @@
       <c r="E3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>286</v>
+      <c r="F3" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="294.75" customHeight="1">
       <c r="A4" s="7">
         <v>29318264</v>
       </c>
@@ -1861,14 +1817,14 @@
       <c r="E4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>286</v>
+      <c r="F4" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="105">
       <c r="A5" s="9">
         <v>29316444</v>
       </c>
@@ -1884,14 +1840,14 @@
       <c r="E5" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>287</v>
+      <c r="F5" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="225">
       <c r="A6" s="7">
         <v>29316349</v>
       </c>
@@ -1907,14 +1863,14 @@
       <c r="E6" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>288</v>
+      <c r="F6" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="195">
       <c r="A7" s="9">
         <v>29312004</v>
       </c>
@@ -1930,14 +1886,14 @@
       <c r="E7" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>289</v>
+      <c r="F7" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="165">
       <c r="A8" s="7">
         <v>28537736</v>
       </c>
@@ -1953,14 +1909,14 @@
       <c r="E8" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>290</v>
+      <c r="F8" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="225">
       <c r="A9" s="9">
         <v>28537595</v>
       </c>
@@ -1976,14 +1932,14 @@
       <c r="E9" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>291</v>
+      <c r="F9" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="120">
       <c r="A10" s="10">
         <v>15433331</v>
       </c>
@@ -1999,29 +1955,28 @@
       <c r="E10" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>292</v>
+      <c r="F10" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CK13"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="AR3" sqref="AR3:AS12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="40" style="3" customWidth="1"/>
@@ -2102,277 +2057,277 @@
     <col min="88" max="89" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK1" s="13" t="s">
+    <row r="1" spans="1:89" ht="23.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:89" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:89" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="23.25" customHeight="1"/>
+    <row r="3" spans="1:89" ht="45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2641,7 +2596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:89" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" ht="105">
       <c r="A4" s="1">
         <v>29318276</v>
       </c>
@@ -2838,7 +2793,7 @@
       </c>
       <c r="CK4" s="2"/>
     </row>
-    <row r="5" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" ht="120">
       <c r="A5" s="1">
         <v>29318265</v>
       </c>
@@ -3017,7 +2972,7 @@
       <c r="CJ5" s="1"/>
       <c r="CK5" s="2"/>
     </row>
-    <row r="6" spans="1:89" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" ht="105">
       <c r="A6" s="1">
         <v>29318264</v>
       </c>
@@ -3214,7 +3169,7 @@
       </c>
       <c r="CK6" s="2"/>
     </row>
-    <row r="7" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" ht="120">
       <c r="A7" s="1">
         <v>29316444</v>
       </c>
@@ -3393,7 +3348,7 @@
       <c r="CJ7" s="1"/>
       <c r="CK7" s="2"/>
     </row>
-    <row r="8" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" ht="120">
       <c r="A8" s="1">
         <v>29316349</v>
       </c>
@@ -3572,7 +3527,7 @@
       <c r="CJ8" s="1"/>
       <c r="CK8" s="2"/>
     </row>
-    <row r="9" spans="1:89" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" ht="135">
       <c r="A9" s="1">
         <v>29312004</v>
       </c>
@@ -3769,7 +3724,7 @@
       </c>
       <c r="CK9" s="2"/>
     </row>
-    <row r="10" spans="1:89" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" ht="105">
       <c r="A10" s="1">
         <v>28537736</v>
       </c>
@@ -3966,7 +3921,7 @@
       </c>
       <c r="CK10" s="2"/>
     </row>
-    <row r="11" spans="1:89" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" ht="105">
       <c r="A11" s="1">
         <v>28537595</v>
       </c>
@@ -4163,7 +4118,7 @@
       </c>
       <c r="CK11" s="2"/>
     </row>
-    <row r="12" spans="1:89" ht="270" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" ht="270">
       <c r="A12" s="1">
         <v>15433331</v>
       </c>
@@ -4396,7 +4351,7 @@
       </c>
       <c r="CK12" s="2"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
@@ -4499,14 +4454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -4587,277 +4542,277 @@
     <col min="88" max="89" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK1" s="13" t="s">
+    <row r="1" spans="1:89" ht="23.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:89" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:89" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="23.25" customHeight="1"/>
+    <row r="3" spans="1:89" ht="45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5126,7 +5081,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:89" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" ht="105" hidden="1">
       <c r="A4" s="1">
         <v>29386966</v>
       </c>
@@ -5325,7 +5280,7 @@
       </c>
       <c r="CK4" s="2"/>
     </row>
-    <row r="5" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" ht="120">
       <c r="A5" s="1">
         <v>29386963</v>
       </c>
@@ -5520,7 +5475,7 @@
       <c r="CJ5" s="1"/>
       <c r="CK5" s="2"/>
     </row>
-    <row r="6" spans="1:89" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" ht="105">
       <c r="A6" s="1">
         <v>29318276</v>
       </c>
@@ -5717,7 +5672,7 @@
       </c>
       <c r="CK6" s="2"/>
     </row>
-    <row r="7" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" ht="120">
       <c r="A7" s="1">
         <v>29318265</v>
       </c>
@@ -5896,7 +5851,7 @@
       <c r="CJ7" s="1"/>
       <c r="CK7" s="2"/>
     </row>
-    <row r="8" spans="1:89" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" ht="105">
       <c r="A8" s="1">
         <v>29318264</v>
       </c>
@@ -6093,7 +6048,7 @@
       </c>
       <c r="CK8" s="2"/>
     </row>
-    <row r="9" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" ht="120">
       <c r="A9" s="1">
         <v>29316444</v>
       </c>
@@ -6272,7 +6227,7 @@
       <c r="CJ9" s="1"/>
       <c r="CK9" s="2"/>
     </row>
-    <row r="10" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" ht="120">
       <c r="A10" s="1">
         <v>29316349</v>
       </c>
@@ -6451,7 +6406,7 @@
       <c r="CJ10" s="1"/>
       <c r="CK10" s="2"/>
     </row>
-    <row r="11" spans="1:89" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" ht="135">
       <c r="A11" s="1">
         <v>29312004</v>
       </c>
@@ -6648,7 +6603,7 @@
       </c>
       <c r="CK11" s="2"/>
     </row>
-    <row r="12" spans="1:89" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" ht="90" hidden="1">
       <c r="A12" s="1">
         <v>28539845</v>
       </c>
@@ -6831,7 +6786,7 @@
       <c r="CJ12" s="1"/>
       <c r="CK12" s="2"/>
     </row>
-    <row r="13" spans="1:89" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" ht="105">
       <c r="A13" s="1">
         <v>28537736</v>
       </c>
@@ -7028,7 +6983,7 @@
       </c>
       <c r="CK13" s="2"/>
     </row>
-    <row r="14" spans="1:89" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" ht="105">
       <c r="A14" s="1">
         <v>28537595</v>
       </c>
@@ -7225,7 +7180,7 @@
       </c>
       <c r="CK14" s="2"/>
     </row>
-    <row r="15" spans="1:89" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" ht="90" hidden="1">
       <c r="A15" s="1">
         <v>28534000</v>
       </c>
@@ -7408,7 +7363,7 @@
       <c r="CJ15" s="1"/>
       <c r="CK15" s="2"/>
     </row>
-    <row r="16" spans="1:89" ht="270" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" ht="270">
       <c r="A16" s="1">
         <v>15433331</v>
       </c>
@@ -7641,7 +7596,7 @@
       </c>
       <c r="CK16" s="2"/>
     </row>
-    <row r="17" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" ht="120">
       <c r="A17" s="1">
         <v>15433327</v>
       </c>
@@ -7814,7 +7769,7 @@
       <c r="CJ17" s="1"/>
       <c r="CK17" s="2"/>
     </row>
-    <row r="18" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" ht="120">
       <c r="A18" s="1">
         <v>4572328</v>
       </c>
@@ -7987,7 +7942,7 @@
       <c r="CJ18" s="1"/>
       <c r="CK18" s="2"/>
     </row>
-    <row r="19" spans="1:89" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" ht="90">
       <c r="A19" s="1">
         <v>3565911</v>
       </c>
@@ -8160,7 +8115,7 @@
       <c r="CJ19" s="1"/>
       <c r="CK19" s="2"/>
     </row>
-    <row r="20" spans="1:89" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" ht="120">
       <c r="A20" s="1">
         <v>3565907</v>
       </c>
@@ -8333,7 +8288,7 @@
       <c r="CJ20" s="1"/>
       <c r="CK20" s="2"/>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8440,11 +8395,11 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">13:04 23/03/2020</XMLData>
+<XMLData TextToDisplay="RightsWATCHMark">7|CITI-No PII-Public|{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="RightsWATCHMark">7|CITI-No PII-Public|{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">13:04 23/03/2020</XMLData>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8454,13 +8409,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AF2C0E-99C9-48EE-95CF-B8AB8F4DC15E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F2A4F65-A1D0-453A-8A8C-F6061C0F0625}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F2A4F65-A1D0-453A-8A8C-F6061C0F0625}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AF2C0E-99C9-48EE-95CF-B8AB8F4DC15E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>